--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_07.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_07.xlsx
@@ -165,10 +165,10 @@
     <t>Nº de clientes con gastos totales superiores a 850 €</t>
   </si>
   <si>
-    <t>Gasto medio de los clientes cuya estancia fue de entre 8 y 10 días</t>
-  </si>
-  <si>
     <t>SPA García</t>
+  </si>
+  <si>
+    <t>Gasto medio de los clientes cuya estancia fue de 5 días</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,7 +491,9 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -503,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,7 +807,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_07.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_07.xlsx
@@ -165,10 +165,10 @@
     <t>Nº de clientes con gastos totales superiores a 850 €</t>
   </si>
   <si>
+    <t>Gasto medio de los clientes cuya estancia fue de entre 8 y 10 días</t>
+  </si>
+  <si>
     <t>SPA García</t>
-  </si>
-  <si>
-    <t>Gasto medio de los clientes cuya estancia fue de 5 días</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,9 +491,7 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -505,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -807,7 +805,7 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
